--- a/Lotto_List.xlsx
+++ b/Lotto_List.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA962"/>
+  <dimension ref="A1:AA966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86073,6 +86073,362 @@
       <c r="Y962" t="n">
         <v>21888810633</v>
       </c>
+      <c r="Z962" t="inlineStr">
+        <is>
+          <t>꽝 (2)</t>
+        </is>
+      </c>
+      <c r="AA962" t="n">
+        <v>0.03618845658416926</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>1</v>
+      </c>
+      <c r="D963" t="n">
+        <v>18</v>
+      </c>
+      <c r="E963" t="n">
+        <v>28</v>
+      </c>
+      <c r="F963" t="n">
+        <v>31</v>
+      </c>
+      <c r="G963" t="n">
+        <v>34</v>
+      </c>
+      <c r="H963" t="n">
+        <v>43</v>
+      </c>
+      <c r="I963" t="n">
+        <v>40</v>
+      </c>
+      <c r="J963" t="n">
+        <v>95956365000</v>
+      </c>
+      <c r="K963" t="n">
+        <v>23290873128</v>
+      </c>
+      <c r="L963" t="n">
+        <v>12</v>
+      </c>
+      <c r="M963" t="n">
+        <v>1940906094</v>
+      </c>
+      <c r="N963" t="n">
+        <v>1</v>
+      </c>
+      <c r="O963" t="n">
+        <v>1</v>
+      </c>
+      <c r="P963" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>2</v>
+      </c>
+      <c r="R963" t="n">
+        <v>1</v>
+      </c>
+      <c r="S963" t="n">
+        <v>49156917</v>
+      </c>
+      <c r="T963" t="n">
+        <v>11</v>
+      </c>
+      <c r="U963" t="n">
+        <v>13</v>
+      </c>
+      <c r="V963" t="n">
+        <v>16</v>
+      </c>
+      <c r="W963" t="n">
+        <v>38</v>
+      </c>
+      <c r="X963" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y963" t="n">
+        <v>792122274</v>
+      </c>
+      <c r="Z963" t="inlineStr">
+        <is>
+          <t>꽝 (0)</t>
+        </is>
+      </c>
+      <c r="AA963" t="n">
+        <v>13.88121301423358</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2021-05-15</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>6</v>
+      </c>
+      <c r="D964" t="n">
+        <v>12</v>
+      </c>
+      <c r="E964" t="n">
+        <v>19</v>
+      </c>
+      <c r="F964" t="n">
+        <v>23</v>
+      </c>
+      <c r="G964" t="n">
+        <v>34</v>
+      </c>
+      <c r="H964" t="n">
+        <v>42</v>
+      </c>
+      <c r="I964" t="n">
+        <v>35</v>
+      </c>
+      <c r="J964" t="n">
+        <v>95452215000</v>
+      </c>
+      <c r="K964" t="n">
+        <v>22147171875</v>
+      </c>
+      <c r="L964" t="n">
+        <v>15</v>
+      </c>
+      <c r="M964" t="n">
+        <v>1476478125</v>
+      </c>
+      <c r="N964" t="n">
+        <v>1</v>
+      </c>
+      <c r="O964" t="n">
+        <v>2</v>
+      </c>
+      <c r="P964" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>1</v>
+      </c>
+      <c r="R964" t="n">
+        <v>1</v>
+      </c>
+      <c r="S964" t="n">
+        <v>682357636</v>
+      </c>
+      <c r="T964" t="n">
+        <v>3</v>
+      </c>
+      <c r="U964" t="n">
+        <v>14</v>
+      </c>
+      <c r="V964" t="n">
+        <v>22</v>
+      </c>
+      <c r="W964" t="n">
+        <v>24</v>
+      </c>
+      <c r="X964" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y964" t="n">
+        <v>10995618009</v>
+      </c>
+      <c r="Z964" t="inlineStr">
+        <is>
+          <t>꽝 (0)</t>
+        </is>
+      </c>
+      <c r="AA964" t="n">
+        <v>1.040817775797559</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2021-05-22</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>6</v>
+      </c>
+      <c r="D965" t="n">
+        <v>21</v>
+      </c>
+      <c r="E965" t="n">
+        <v>36</v>
+      </c>
+      <c r="F965" t="n">
+        <v>38</v>
+      </c>
+      <c r="G965" t="n">
+        <v>39</v>
+      </c>
+      <c r="H965" t="n">
+        <v>43</v>
+      </c>
+      <c r="I965" t="n">
+        <v>30</v>
+      </c>
+      <c r="J965" t="n">
+        <v>95549895000</v>
+      </c>
+      <c r="K965" t="n">
+        <v>23458610630</v>
+      </c>
+      <c r="L965" t="n">
+        <v>10</v>
+      </c>
+      <c r="M965" t="n">
+        <v>2345861063</v>
+      </c>
+      <c r="N965" t="n">
+        <v>1</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P965" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>3</v>
+      </c>
+      <c r="R965" t="n">
+        <v>1</v>
+      </c>
+      <c r="S965" t="n">
+        <v>710209957</v>
+      </c>
+      <c r="T965" t="n">
+        <v>10</v>
+      </c>
+      <c r="U965" t="n">
+        <v>12</v>
+      </c>
+      <c r="V965" t="n">
+        <v>14</v>
+      </c>
+      <c r="W965" t="n">
+        <v>28</v>
+      </c>
+      <c r="X965" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y965" t="n">
+        <v>11444434680</v>
+      </c>
+      <c r="Z965" t="inlineStr">
+        <is>
+          <t>꽝 (1)</t>
+        </is>
+      </c>
+      <c r="AA965" t="n">
+        <v>0.2315609748625363</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2021-05-29</t>
+        </is>
+      </c>
+      <c r="C966" t="n">
+        <v>2</v>
+      </c>
+      <c r="D966" t="n">
+        <v>13</v>
+      </c>
+      <c r="E966" t="n">
+        <v>25</v>
+      </c>
+      <c r="F966" t="n">
+        <v>28</v>
+      </c>
+      <c r="G966" t="n">
+        <v>29</v>
+      </c>
+      <c r="H966" t="n">
+        <v>36</v>
+      </c>
+      <c r="I966" t="n">
+        <v>34</v>
+      </c>
+      <c r="J966" t="n">
+        <v>96174650000</v>
+      </c>
+      <c r="K966" t="n">
+        <v>23823442503</v>
+      </c>
+      <c r="L966" t="n">
+        <v>7</v>
+      </c>
+      <c r="M966" t="n">
+        <v>3403348929</v>
+      </c>
+      <c r="N966" t="n">
+        <v>1</v>
+      </c>
+      <c r="O966" t="n">
+        <v>1</v>
+      </c>
+      <c r="P966" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>1</v>
+      </c>
+      <c r="R966" t="n">
+        <v>0</v>
+      </c>
+      <c r="S966" t="n">
+        <v>164456910</v>
+      </c>
+      <c r="T966" t="n">
+        <v>4</v>
+      </c>
+      <c r="U966" t="n">
+        <v>13</v>
+      </c>
+      <c r="V966" t="n">
+        <v>18</v>
+      </c>
+      <c r="W966" t="n">
+        <v>22</v>
+      </c>
+      <c r="X966" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y966" t="n">
+        <v>2650084452</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
